--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt1-Fzd10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt1-Fzd10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +86,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +516,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +531,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H2">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I2">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.003092666666666667</v>
+        <v>0.085107</v>
       </c>
       <c r="N2">
-        <v>0.009278</v>
+        <v>0.255321</v>
       </c>
       <c r="O2">
-        <v>0.019469509380115</v>
+        <v>0.803017436594203</v>
       </c>
       <c r="P2">
-        <v>0.01946950938011499</v>
+        <v>0.8030174365942029</v>
       </c>
       <c r="Q2">
-        <v>0.0002897859593333334</v>
+        <v>0.003328080866</v>
       </c>
       <c r="R2">
-        <v>0.002608073634</v>
+        <v>0.029952727794</v>
       </c>
       <c r="S2">
-        <v>0.01373670675517979</v>
+        <v>0.803017436594203</v>
       </c>
       <c r="T2">
-        <v>0.01373670675517979</v>
+        <v>0.8030174365942029</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,13 +578,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -599,16 +593,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.09370100000000002</v>
+        <v>0.03910466666666667</v>
       </c>
       <c r="H3">
-        <v>0.281103</v>
+        <v>0.117314</v>
       </c>
       <c r="I3">
-        <v>0.7055497129891547</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.7055497129891546</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,400 +611,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.085107</v>
+        <v>0.020877</v>
       </c>
       <c r="N3">
-        <v>0.255321</v>
+        <v>0.06263099999999999</v>
       </c>
       <c r="O3">
-        <v>0.5357808368657405</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="P3">
-        <v>0.5357808368657405</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="Q3">
-        <v>0.007974611007000003</v>
+        <v>0.000816388126</v>
       </c>
       <c r="R3">
-        <v>0.07177149906300002</v>
+        <v>0.007347493134</v>
       </c>
       <c r="S3">
-        <v>0.3780200156757124</v>
+        <v>0.1969825634057971</v>
       </c>
       <c r="T3">
-        <v>0.3780200156757123</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.09370100000000002</v>
-      </c>
-      <c r="H4">
-        <v>0.281103</v>
-      </c>
-      <c r="I4">
-        <v>0.7055497129891547</v>
-      </c>
-      <c r="J4">
-        <v>0.7055497129891546</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M4">
-        <v>0.03969433333333334</v>
-      </c>
-      <c r="N4">
-        <v>0.119083</v>
-      </c>
-      <c r="O4">
-        <v>0.249890880094011</v>
-      </c>
-      <c r="P4">
-        <v>0.249890880094011</v>
-      </c>
-      <c r="Q4">
-        <v>0.003719398727666668</v>
-      </c>
-      <c r="R4">
-        <v>0.033474588549</v>
-      </c>
-      <c r="S4">
-        <v>0.1763104387289368</v>
-      </c>
-      <c r="T4">
-        <v>0.1763104387289367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G5">
-        <v>0.09370100000000002</v>
-      </c>
-      <c r="H5">
-        <v>0.281103</v>
-      </c>
-      <c r="I5">
-        <v>0.7055497129891547</v>
-      </c>
-      <c r="J5">
-        <v>0.7055497129891546</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M5">
-        <v>0.03095266666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.092858</v>
-      </c>
-      <c r="O5">
-        <v>0.1948587736601335</v>
-      </c>
-      <c r="P5">
-        <v>0.1948587736601334</v>
-      </c>
-      <c r="Q5">
-        <v>0.002900295819333334</v>
-      </c>
-      <c r="R5">
-        <v>0.026102662374</v>
-      </c>
-      <c r="S5">
-        <v>0.1374825518293258</v>
-      </c>
-      <c r="T5">
-        <v>0.1374825518293258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G6">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H6">
-        <v>0.117314</v>
-      </c>
-      <c r="I6">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J6">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.003092666666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.009278</v>
-      </c>
-      <c r="O6">
-        <v>0.019469509380115</v>
-      </c>
-      <c r="P6">
-        <v>0.01946950938011499</v>
-      </c>
-      <c r="Q6">
-        <v>0.0001209376991111111</v>
-      </c>
-      <c r="R6">
-        <v>0.001088439292</v>
-      </c>
-      <c r="S6">
-        <v>0.005732802624935208</v>
-      </c>
-      <c r="T6">
-        <v>0.005732802624935207</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G7">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H7">
-        <v>0.117314</v>
-      </c>
-      <c r="I7">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J7">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M7">
-        <v>0.085107</v>
-      </c>
-      <c r="N7">
-        <v>0.255321</v>
-      </c>
-      <c r="O7">
-        <v>0.5357808368657405</v>
-      </c>
-      <c r="P7">
-        <v>0.5357808368657405</v>
-      </c>
-      <c r="Q7">
-        <v>0.003328080866</v>
-      </c>
-      <c r="R7">
-        <v>0.02995272779400001</v>
-      </c>
-      <c r="S7">
-        <v>0.1577608211900282</v>
-      </c>
-      <c r="T7">
-        <v>0.1577608211900282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.117314</v>
-      </c>
-      <c r="I8">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J8">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.03969433333333334</v>
-      </c>
-      <c r="N8">
-        <v>0.119083</v>
-      </c>
-      <c r="O8">
-        <v>0.249890880094011</v>
-      </c>
-      <c r="P8">
-        <v>0.249890880094011</v>
-      </c>
-      <c r="Q8">
-        <v>0.001552233673555556</v>
-      </c>
-      <c r="R8">
-        <v>0.013970103062</v>
-      </c>
-      <c r="S8">
-        <v>0.0735804413650743</v>
-      </c>
-      <c r="T8">
-        <v>0.0735804413650743</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.03910466666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.117314</v>
-      </c>
-      <c r="I9">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="J9">
-        <v>0.2944502870108454</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.03095266666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.092858</v>
-      </c>
-      <c r="O9">
-        <v>0.1948587736601335</v>
-      </c>
-      <c r="P9">
-        <v>0.1948587736601334</v>
-      </c>
-      <c r="Q9">
-        <v>0.001210393712444445</v>
-      </c>
-      <c r="R9">
-        <v>0.010893543412</v>
-      </c>
-      <c r="S9">
-        <v>0.05737622183080766</v>
-      </c>
-      <c r="T9">
-        <v>0.05737622183080766</v>
+        <v>0.1969825634057971</v>
       </c>
     </row>
   </sheetData>
